--- a/pred_ohlcv/54_21/2019-10-15 PPT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-15 PPT ohlcv.xlsx
@@ -522,7 +522,7 @@
         <v>6488.034499999998</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>6488.034499999998</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>6488.034499999998</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>6488.034499999998</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>6488.034499999998</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -678,7 +678,7 @@
         <v>6487.034499999998</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -860,7 +860,7 @@
         <v>7527.352299999998</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -912,7 +912,7 @@
         <v>19085.03493076</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>23801.0383</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>33074.8943</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>57899.2196</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>60982.6767</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>61762.7527</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>75026.7317</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>87883.50330000001</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>77371.58260000001</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>70819.7029</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>70820.7029</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>80484.0242</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>79715.8811</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>96424.46290000001</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>96423.46290000001</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>96423.46290000001</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>96398.46290000001</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>97253.73350000002</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>97225.54800000001</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>97225.54800000001</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>96217.25580000001</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>93364.76630000002</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>91871.54860000002</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>91018.29120000002</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>78234.55430000002</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>79735.35430000002</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>78815.82530000003</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>88602.54630000005</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>88790.26550000005</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>87712.79040000006</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>88498.83550000006</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>88499.83550000006</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>86351.71430000007</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>96705.5097000001</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>96736.5097000001</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>94393.57000000009</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>90892.54020000009</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>87494.05000000009</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>86862.66220000009</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>45800.91397383004</v>
       </c>
       <c r="H562">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="563" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-15 PPT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-15 PPT ohlcv.xlsx
@@ -652,7 +652,7 @@
         <v>6487.034499999998</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>6487.034499999998</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -860,7 +860,7 @@
         <v>7527.352299999998</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -912,7 +912,7 @@
         <v>19085.03493076</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>23801.0383</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>33074.8943</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>57899.2196</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>60982.6767</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>61762.7527</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>75026.7317</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>87883.50330000001</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>77371.58260000001</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>70819.7029</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>70820.7029</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>80484.0242</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>79715.8811</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>97587.2159</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>95156.7856</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>95148.7856</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>96424.46290000001</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>96423.46290000001</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>96423.46290000001</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>96398.46290000001</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>97253.73350000002</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>97225.54800000001</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>97225.54800000001</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>96217.25580000001</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>93364.76630000002</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>91525.47740000002</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>91871.54860000002</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>91871.54860000002</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>91018.29120000002</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>78234.55430000002</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>87562.83550000006</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>87494.05000000009</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>45800.91397383004</v>
       </c>
       <c r="H562">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="563" spans="1:8">
